--- a/medicine/Pharmacie/Coumestrol/Coumestrol.xlsx
+++ b/medicine/Pharmacie/Coumestrol/Coumestrol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coumestrol est un composé organique naturel dans la classe des composés phytochimiques connus sous le nom de coumestanes. 
@@ -513,9 +525,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[3]Phyto-estrogène.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyto-estrogène.
 Inhibiteur de la 17-bêta hydroxystéroïde oxydoréductase.
 Son affinité pour le récepteur bêta des œstrogènes est environ une fois et demie supérieure à celle de l'œstradiol.
 Le coumestrol est un phytoestrogène, imitant l'activité biologique des œstrogènes. Les phytoestrogènes sont capables de passer à travers les membranes cellulaires en raison de leur faible poids moléculaire et structure stable, et ils sont capables d'interagir avec les enzymes et les récepteurs des cellules. Le coumestrol se lie aux ERα et ERβ avec une affinité similaire à celle de l'œstradiol (94% et 185% de l'affinité de liaison relative de l'œstradiol aux ER α et ERβ, respectivement), bien que l'activité oestrogénique du coumestrol sur les deux récepteurs soit beaucoup plus faible que celle de l'œstradiol. Dans tous les cas, le coumestrol a une activité œstrogénique qui est de 30 à 100 fois supérieure à celle des isoflavones.
@@ -548,7 +562,9 @@
           <t>Effets thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Utilisé notamment lors de la ménopause afin de diminuer les bouffées de chaleur.
 </t>
@@ -579,7 +595,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Effets secondaires gastro-intestinaux (constipation, douleur, flatulence).
 </t>
